--- a/data/pca/factorExposure/factorExposure_2014-10-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.005689537770184999</v>
+        <v>-0.0158043038066875</v>
       </c>
       <c r="C2">
-        <v>-0.09871508089662991</v>
+        <v>0.07147079761718333</v>
       </c>
       <c r="D2">
-        <v>-0.01557786930962556</v>
+        <v>-0.02821351523675859</v>
       </c>
       <c r="E2">
-        <v>0.1926336173520065</v>
+        <v>0.02996938172086948</v>
       </c>
       <c r="F2">
-        <v>-0.1644844397530001</v>
+        <v>0.1625771053079636</v>
       </c>
       <c r="G2">
-        <v>0.03749422216431018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.01736376554174677</v>
+      </c>
+      <c r="H2">
+        <v>-0.05652874598365896</v>
+      </c>
+      <c r="I2">
+        <v>-0.004506381436399337</v>
+      </c>
+      <c r="J2">
+        <v>-0.1781512293559417</v>
+      </c>
+      <c r="K2">
+        <v>-0.0723781306579639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.03125577998956326</v>
+        <v>-0.02181727621749002</v>
       </c>
       <c r="C4">
-        <v>-0.1707077681063402</v>
+        <v>0.1491572108195164</v>
       </c>
       <c r="D4">
-        <v>0.01794384292098835</v>
+        <v>-0.06083598905787983</v>
       </c>
       <c r="E4">
-        <v>0.1279886631079148</v>
+        <v>-0.0443749437276106</v>
       </c>
       <c r="F4">
-        <v>0.01428218099729733</v>
+        <v>0.08109564417047689</v>
       </c>
       <c r="G4">
-        <v>0.04880443457604135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.005327141157087297</v>
+      </c>
+      <c r="H4">
+        <v>-0.1089661455437423</v>
+      </c>
+      <c r="I4">
+        <v>-0.014005010370668</v>
+      </c>
+      <c r="J4">
+        <v>-0.1589865668409904</v>
+      </c>
+      <c r="K4">
+        <v>0.09645347318198377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02961781261499109</v>
+        <v>-0.04042583297712269</v>
       </c>
       <c r="C6">
-        <v>-0.07552819566780021</v>
+        <v>0.08697031330925539</v>
       </c>
       <c r="D6">
-        <v>0.03847164797996471</v>
+        <v>-0.0239304107882037</v>
       </c>
       <c r="E6">
-        <v>0.07224526367098436</v>
+        <v>0.03456715691575417</v>
       </c>
       <c r="F6">
-        <v>-0.01528001585330828</v>
+        <v>0.04792044815036585</v>
       </c>
       <c r="G6">
-        <v>-0.01483859935948453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.03771351889732544</v>
+      </c>
+      <c r="H6">
+        <v>-0.030871362382302</v>
+      </c>
+      <c r="I6">
+        <v>0.07471461261500906</v>
+      </c>
+      <c r="J6">
+        <v>-0.05829936883322874</v>
+      </c>
+      <c r="K6">
+        <v>-0.03667989896614372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.006445076071846407</v>
+        <v>-0.01320938058528903</v>
       </c>
       <c r="C7">
-        <v>-0.05592310522933028</v>
+        <v>0.06968178394394765</v>
       </c>
       <c r="D7">
-        <v>0.0187913037315541</v>
+        <v>-0.02281151331033833</v>
       </c>
       <c r="E7">
-        <v>0.05859006142733415</v>
+        <v>-0.02211246248654721</v>
       </c>
       <c r="F7">
-        <v>0.02723535172055339</v>
+        <v>0.003369742220241333</v>
       </c>
       <c r="G7">
-        <v>0.01425573660270383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.05676981802832733</v>
+      </c>
+      <c r="H7">
+        <v>-0.09884530647559304</v>
+      </c>
+      <c r="I7">
+        <v>0.007046161741262364</v>
+      </c>
+      <c r="J7">
+        <v>-0.03692880066569299</v>
+      </c>
+      <c r="K7">
+        <v>0.002709906765631758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.006253256315106145</v>
+        <v>0.0003657750595336788</v>
       </c>
       <c r="C8">
-        <v>-0.07001593846813256</v>
+        <v>0.06575408353971898</v>
       </c>
       <c r="D8">
-        <v>0.01746497480845392</v>
+        <v>-0.04185787261608101</v>
       </c>
       <c r="E8">
-        <v>0.09439517879761482</v>
+        <v>-0.007075209488411835</v>
       </c>
       <c r="F8">
-        <v>-0.01670833638828152</v>
+        <v>0.06543734607991918</v>
       </c>
       <c r="G8">
-        <v>0.04438134320896638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01860124748037716</v>
+      </c>
+      <c r="H8">
+        <v>-0.05979165909777466</v>
+      </c>
+      <c r="I8">
+        <v>-0.001304533919950695</v>
+      </c>
+      <c r="J8">
+        <v>0.0005485036387185235</v>
+      </c>
+      <c r="K8">
+        <v>-0.005150271126638304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01657496337863703</v>
+        <v>-0.01411874976808672</v>
       </c>
       <c r="C9">
-        <v>-0.137279022575847</v>
+        <v>0.1119980220440849</v>
       </c>
       <c r="D9">
-        <v>0.0275640316315016</v>
+        <v>-0.04214598750803775</v>
       </c>
       <c r="E9">
-        <v>0.06205439612573846</v>
+        <v>-0.01163828941208183</v>
       </c>
       <c r="F9">
-        <v>0.01250163687137554</v>
+        <v>0.03302113573603684</v>
       </c>
       <c r="G9">
-        <v>-0.007796700168015367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.003128147544581452</v>
+      </c>
+      <c r="H9">
+        <v>-0.09616797274476385</v>
+      </c>
+      <c r="I9">
+        <v>0.01837450586335916</v>
+      </c>
+      <c r="J9">
+        <v>-0.07651710815695673</v>
+      </c>
+      <c r="K9">
+        <v>0.06134215960367256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2701230186141129</v>
+        <v>-0.2495805871877952</v>
       </c>
       <c r="C10">
-        <v>0.1080170554868337</v>
+        <v>-0.09992847024718936</v>
       </c>
       <c r="D10">
-        <v>-0.0261463909482398</v>
+        <v>0.006437701642806702</v>
       </c>
       <c r="E10">
-        <v>-0.02521204407414812</v>
+        <v>0.01242094200369664</v>
       </c>
       <c r="F10">
-        <v>0.02268779088408544</v>
+        <v>0.0007200869943532367</v>
       </c>
       <c r="G10">
-        <v>-0.00680324810248469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02120905261809857</v>
+      </c>
+      <c r="H10">
+        <v>-0.04494836406093282</v>
+      </c>
+      <c r="I10">
+        <v>-0.1727679189644609</v>
+      </c>
+      <c r="J10">
+        <v>0.08463126333538222</v>
+      </c>
+      <c r="K10">
+        <v>0.07144608510071271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01130227755457591</v>
+        <v>-0.01616598840920248</v>
       </c>
       <c r="C11">
-        <v>-0.06900686439776622</v>
+        <v>0.0831674015138482</v>
       </c>
       <c r="D11">
-        <v>0.02136910790216832</v>
+        <v>-0.03450632550547056</v>
       </c>
       <c r="E11">
-        <v>0.01409116353249957</v>
+        <v>-0.008453696146812819</v>
       </c>
       <c r="F11">
-        <v>0.05145808646879013</v>
+        <v>-0.007616718801509718</v>
       </c>
       <c r="G11">
-        <v>-0.02568458073650643</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.01860201515856604</v>
+      </c>
+      <c r="H11">
+        <v>-0.03526510918484469</v>
+      </c>
+      <c r="I11">
+        <v>0.01680662557207534</v>
+      </c>
+      <c r="J11">
+        <v>0.02469668609820226</v>
+      </c>
+      <c r="K11">
+        <v>0.03640041719543266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.008163917455920747</v>
+        <v>-0.0159958311996176</v>
       </c>
       <c r="C12">
-        <v>-0.06178676368202475</v>
+        <v>0.06177359669785272</v>
       </c>
       <c r="D12">
-        <v>0.02698103823014479</v>
+        <v>-0.02157826731970196</v>
       </c>
       <c r="E12">
-        <v>0.009683926582376734</v>
+        <v>0.01806815199381429</v>
       </c>
       <c r="F12">
-        <v>0.03115211236418173</v>
+        <v>-0.005763646840808524</v>
       </c>
       <c r="G12">
-        <v>-0.06258186235643247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.03334761632220871</v>
+      </c>
+      <c r="H12">
+        <v>-0.03168191573795317</v>
+      </c>
+      <c r="I12">
+        <v>0.01243522801627053</v>
+      </c>
+      <c r="J12">
+        <v>0.01026393314381007</v>
+      </c>
+      <c r="K12">
+        <v>0.03320069512072067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.02853436440160287</v>
+        <v>-0.006093432207249993</v>
       </c>
       <c r="C13">
-        <v>-0.1105046163580099</v>
+        <v>0.1145796483352583</v>
       </c>
       <c r="D13">
-        <v>0.03787407766289388</v>
+        <v>-0.03638710384741088</v>
       </c>
       <c r="E13">
-        <v>0.09905089162820789</v>
+        <v>0.09416641875770719</v>
       </c>
       <c r="F13">
-        <v>0.04630623257276894</v>
+        <v>0.1346729687399625</v>
       </c>
       <c r="G13">
-        <v>-0.1540733327009338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.117681607114652</v>
+      </c>
+      <c r="H13">
+        <v>-0.1278723986759272</v>
+      </c>
+      <c r="I13">
+        <v>-0.1932698034956601</v>
+      </c>
+      <c r="J13">
+        <v>0.1926173829154463</v>
+      </c>
+      <c r="K13">
+        <v>-0.1463404274387321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.0104633817696928</v>
+        <v>-0.01795848578941334</v>
       </c>
       <c r="C14">
-        <v>-0.06425554413529375</v>
+        <v>0.07429022589372762</v>
       </c>
       <c r="D14">
-        <v>0.02023140120773311</v>
+        <v>-0.04635120042396614</v>
       </c>
       <c r="E14">
-        <v>0.05198495516553368</v>
+        <v>0.04098961659033554</v>
       </c>
       <c r="F14">
-        <v>0.002918169577255106</v>
+        <v>0.01601045411501716</v>
       </c>
       <c r="G14">
-        <v>-0.05514805456975291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.0879184180290811</v>
+      </c>
+      <c r="H14">
+        <v>-0.2032394150763369</v>
+      </c>
+      <c r="I14">
+        <v>0.03461424148607001</v>
+      </c>
+      <c r="J14">
+        <v>0.1147729573964788</v>
+      </c>
+      <c r="K14">
+        <v>-0.105587170872807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.007926120808798946</v>
+        <v>-0.001326504992482425</v>
       </c>
       <c r="C15">
-        <v>-0.09191029425752084</v>
+        <v>0.07857593820115547</v>
       </c>
       <c r="D15">
-        <v>0.0227846744524572</v>
+        <v>-0.03242405919186274</v>
       </c>
       <c r="E15">
-        <v>0.09595854516678261</v>
+        <v>-0.01008933484007481</v>
       </c>
       <c r="F15">
-        <v>0.01485103850742949</v>
+        <v>0.02909455665448205</v>
       </c>
       <c r="G15">
-        <v>-0.01991712475744271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.04795868750483737</v>
+      </c>
+      <c r="H15">
+        <v>-0.08471010627561955</v>
+      </c>
+      <c r="I15">
+        <v>0.02968244957373527</v>
+      </c>
+      <c r="J15">
+        <v>0.05198801481067201</v>
+      </c>
+      <c r="K15">
+        <v>0.006014455041563003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01328835167590279</v>
+        <v>-0.01547425480063797</v>
       </c>
       <c r="C16">
-        <v>-0.06538052494599955</v>
+        <v>0.06591879750133928</v>
       </c>
       <c r="D16">
-        <v>0.01513194377676321</v>
+        <v>-0.0257576199583408</v>
       </c>
       <c r="E16">
-        <v>0.01100004426964014</v>
+        <v>-0.00332246787046859</v>
       </c>
       <c r="F16">
-        <v>0.03041051642629555</v>
+        <v>-0.004715440794401457</v>
       </c>
       <c r="G16">
-        <v>-0.03027291736911093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.0170725766463687</v>
+      </c>
+      <c r="H16">
+        <v>-0.0268401850449918</v>
+      </c>
+      <c r="I16">
+        <v>0.01474454709454174</v>
+      </c>
+      <c r="J16">
+        <v>0.007501387647582909</v>
+      </c>
+      <c r="K16">
+        <v>0.02440619900240918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01259206461077378</v>
+        <v>-0.01277386920805242</v>
       </c>
       <c r="C20">
-        <v>-0.08833936072843854</v>
+        <v>0.08576464922280122</v>
       </c>
       <c r="D20">
-        <v>0.007648221312717192</v>
+        <v>-0.02250542673991215</v>
       </c>
       <c r="E20">
-        <v>0.04473883207087981</v>
+        <v>-0.02837415693578344</v>
       </c>
       <c r="F20">
-        <v>0.07601404755253091</v>
+        <v>-0.004367252060342755</v>
       </c>
       <c r="G20">
-        <v>-0.04534289093571173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05009420872390435</v>
+      </c>
+      <c r="H20">
+        <v>-0.0701150939262369</v>
+      </c>
+      <c r="I20">
+        <v>0.02063889469042609</v>
+      </c>
+      <c r="J20">
+        <v>-0.01759218749224604</v>
+      </c>
+      <c r="K20">
+        <v>0.02256883986629509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.001564106616595269</v>
+        <v>-0.01387789113284747</v>
       </c>
       <c r="C21">
-        <v>-0.0926022300621436</v>
+        <v>0.07754079484832531</v>
       </c>
       <c r="D21">
-        <v>-0.03218023809918574</v>
+        <v>-0.02278159507406952</v>
       </c>
       <c r="E21">
-        <v>0.04672591434739411</v>
+        <v>0.07843898282599332</v>
       </c>
       <c r="F21">
-        <v>-0.03368366116284428</v>
+        <v>0.03467233184417756</v>
       </c>
       <c r="G21">
-        <v>-0.04831252110061229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01531617823607067</v>
+      </c>
+      <c r="H21">
+        <v>-0.1494275523176031</v>
+      </c>
+      <c r="I21">
+        <v>-0.03508561735959618</v>
+      </c>
+      <c r="J21">
+        <v>0.05189353241621718</v>
+      </c>
+      <c r="K21">
+        <v>-0.004140961606361098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04863154517257048</v>
+        <v>-0.005896109285454048</v>
       </c>
       <c r="C22">
-        <v>-0.1614330720496543</v>
+        <v>0.1651140588957722</v>
       </c>
       <c r="D22">
-        <v>-0.1138489563173874</v>
+        <v>-0.01052721197248597</v>
       </c>
       <c r="E22">
-        <v>0.2778972280562479</v>
+        <v>-0.171549808827746</v>
       </c>
       <c r="F22">
-        <v>-0.02835777015373766</v>
+        <v>0.4921025678320887</v>
       </c>
       <c r="G22">
-        <v>0.2462800208107412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.08654746714297744</v>
+      </c>
+      <c r="H22">
+        <v>0.3007057895856871</v>
+      </c>
+      <c r="I22">
+        <v>-0.03145854846907823</v>
+      </c>
+      <c r="J22">
+        <v>0.2174297255501113</v>
+      </c>
+      <c r="K22">
+        <v>0.02950395542949103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04853505159520446</v>
+        <v>-0.01088099262291385</v>
       </c>
       <c r="C23">
-        <v>-0.1620705422015048</v>
+        <v>0.1689404348339522</v>
       </c>
       <c r="D23">
-        <v>-0.1134993776419051</v>
+        <v>-0.009337525240848755</v>
       </c>
       <c r="E23">
-        <v>0.2741509455118877</v>
+        <v>-0.1643914299126328</v>
       </c>
       <c r="F23">
-        <v>-0.02795239755741758</v>
+        <v>0.4765008353900711</v>
       </c>
       <c r="G23">
-        <v>0.2445588771838319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.0819762830242588</v>
+      </c>
+      <c r="H23">
+        <v>0.2793127827912102</v>
+      </c>
+      <c r="I23">
+        <v>-0.02461530816049306</v>
+      </c>
+      <c r="J23">
+        <v>0.2051797347156868</v>
+      </c>
+      <c r="K23">
+        <v>0.03769121067624723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.007463256791046131</v>
+        <v>-0.01646127193121671</v>
       </c>
       <c r="C24">
-        <v>-0.07256681858466607</v>
+        <v>0.07268954843106812</v>
       </c>
       <c r="D24">
-        <v>0.03712365279179527</v>
+        <v>-0.03817826700124931</v>
       </c>
       <c r="E24">
-        <v>0.01800443095713363</v>
+        <v>-0.005903396302891988</v>
       </c>
       <c r="F24">
-        <v>0.04082804821227689</v>
+        <v>-0.00629557136190969</v>
       </c>
       <c r="G24">
-        <v>-0.0438643324306598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03076530708439601</v>
+      </c>
+      <c r="H24">
+        <v>-0.043950809867673</v>
+      </c>
+      <c r="I24">
+        <v>0.01663613508916873</v>
+      </c>
+      <c r="J24">
+        <v>0.01552312916156722</v>
+      </c>
+      <c r="K24">
+        <v>0.03608567199356121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.01075773197829065</v>
+        <v>-0.0208915765819483</v>
       </c>
       <c r="C25">
-        <v>-0.06727441597178428</v>
+        <v>0.07136936214968674</v>
       </c>
       <c r="D25">
-        <v>0.01226273184502955</v>
+        <v>-0.02633738755630312</v>
       </c>
       <c r="E25">
-        <v>0.009091299063700422</v>
+        <v>-0.008521179985483136</v>
       </c>
       <c r="F25">
-        <v>0.0504747249880835</v>
+        <v>-0.004453270463550547</v>
       </c>
       <c r="G25">
-        <v>-0.03827814085854707</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02653835918055138</v>
+      </c>
+      <c r="H25">
+        <v>-0.03751027535630443</v>
+      </c>
+      <c r="I25">
+        <v>0.003728635252052277</v>
+      </c>
+      <c r="J25">
+        <v>0.0270355820123723</v>
+      </c>
+      <c r="K25">
+        <v>0.02779608656671522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.006273941020296559</v>
+        <v>-0.02323521479162545</v>
       </c>
       <c r="C26">
-        <v>-0.05975854741456106</v>
+        <v>0.06126295235995001</v>
       </c>
       <c r="D26">
-        <v>0.04931498446096608</v>
+        <v>-0.06117552272595082</v>
       </c>
       <c r="E26">
-        <v>0.02569187650548331</v>
+        <v>0.000363015918021081</v>
       </c>
       <c r="F26">
-        <v>0.0001710498951031012</v>
+        <v>-0.01927692197564701</v>
       </c>
       <c r="G26">
-        <v>-0.02859144830202412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0008150410832608618</v>
+      </c>
+      <c r="H26">
+        <v>-0.1042099863075478</v>
+      </c>
+      <c r="I26">
+        <v>0.04665486519700129</v>
+      </c>
+      <c r="J26">
+        <v>-0.1000667558033788</v>
+      </c>
+      <c r="K26">
+        <v>0.08313003220992266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3735654127117013</v>
+        <v>-0.3179561561440353</v>
       </c>
       <c r="C28">
-        <v>0.1180569478516968</v>
+        <v>-0.1120828049293993</v>
       </c>
       <c r="D28">
-        <v>-0.02558007323406713</v>
+        <v>0.03026797782237299</v>
       </c>
       <c r="E28">
-        <v>-0.1204031767717474</v>
+        <v>-0.0009571491968708852</v>
       </c>
       <c r="F28">
-        <v>-0.0222652475075656</v>
+        <v>0.01829608263213268</v>
       </c>
       <c r="G28">
-        <v>-0.02182863816856978</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1068813788592821</v>
+      </c>
+      <c r="H28">
+        <v>-0.06445221980409094</v>
+      </c>
+      <c r="I28">
+        <v>-0.2135511376064527</v>
+      </c>
+      <c r="J28">
+        <v>-0.01828297026025837</v>
+      </c>
+      <c r="K28">
+        <v>-0.00688177630330968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01334917538807053</v>
+        <v>-0.01327897157012585</v>
       </c>
       <c r="C29">
-        <v>-0.06676943043287047</v>
+        <v>0.07900551791237738</v>
       </c>
       <c r="D29">
-        <v>0.03279551988355648</v>
+        <v>-0.05129396765435319</v>
       </c>
       <c r="E29">
-        <v>0.07424698949998831</v>
+        <v>0.04561982431199967</v>
       </c>
       <c r="F29">
-        <v>0.02936954391749558</v>
+        <v>0.03138658387781403</v>
       </c>
       <c r="G29">
-        <v>-0.08319073237034208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1382259572024002</v>
+      </c>
+      <c r="H29">
+        <v>-0.2852368003195724</v>
+      </c>
+      <c r="I29">
+        <v>0.03419816528310174</v>
+      </c>
+      <c r="J29">
+        <v>0.170699122647091</v>
+      </c>
+      <c r="K29">
+        <v>-0.1975784079569924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.03842244064221494</v>
+        <v>-0.02881324991180162</v>
       </c>
       <c r="C30">
-        <v>-0.1753540130729097</v>
+        <v>0.1469197003467068</v>
       </c>
       <c r="D30">
-        <v>0.04091760699360948</v>
+        <v>-0.05283663562453136</v>
       </c>
       <c r="E30">
-        <v>0.06512772744346484</v>
+        <v>-0.02426393252563945</v>
       </c>
       <c r="F30">
-        <v>0.005604505505937403</v>
+        <v>0.0615384330122595</v>
       </c>
       <c r="G30">
-        <v>0.03251534870818366</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.00357421873748991</v>
+      </c>
+      <c r="H30">
+        <v>-0.0299860891489443</v>
+      </c>
+      <c r="I30">
+        <v>0.04426693606065028</v>
+      </c>
+      <c r="J30">
+        <v>-0.09009560975546151</v>
+      </c>
+      <c r="K30">
+        <v>0.02485768495124258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.003727374543520381</v>
+        <v>-0.01119660529059213</v>
       </c>
       <c r="C31">
-        <v>-0.08586596314774395</v>
+        <v>0.09066203558141372</v>
       </c>
       <c r="D31">
-        <v>0.04131599102242631</v>
+        <v>-0.04152198690248146</v>
       </c>
       <c r="E31">
-        <v>-0.04327678435302804</v>
+        <v>0.006406347230270192</v>
       </c>
       <c r="F31">
-        <v>-0.01510668742532598</v>
+        <v>-0.01933520443448767</v>
       </c>
       <c r="G31">
-        <v>-0.003306552979810646</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04806491898378147</v>
+      </c>
+      <c r="H31">
+        <v>-0.03217493166666102</v>
+      </c>
+      <c r="I31">
+        <v>0.007436221155871378</v>
+      </c>
+      <c r="J31">
+        <v>0.03415084063749489</v>
+      </c>
+      <c r="K31">
+        <v>0.02535334981141584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03117381736219231</v>
+        <v>-0.02403708289482391</v>
       </c>
       <c r="C32">
-        <v>-0.08391854130088529</v>
+        <v>0.06143649292929654</v>
       </c>
       <c r="D32">
-        <v>-0.007017760685057843</v>
+        <v>-0.02047607103974025</v>
       </c>
       <c r="E32">
-        <v>0.1633485119292483</v>
+        <v>0.04862191888900051</v>
       </c>
       <c r="F32">
-        <v>-0.04648988940494114</v>
+        <v>0.1177385406722905</v>
       </c>
       <c r="G32">
-        <v>-0.04613660825910728</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05146993286150762</v>
+      </c>
+      <c r="H32">
+        <v>-0.1769628700268171</v>
+      </c>
+      <c r="I32">
+        <v>-0.2400518852318574</v>
+      </c>
+      <c r="J32">
+        <v>0.007998768360336689</v>
+      </c>
+      <c r="K32">
+        <v>-0.1957559048143679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01610698363394106</v>
+        <v>-0.01654471052784029</v>
       </c>
       <c r="C33">
-        <v>-0.08634490533549388</v>
+        <v>0.1055676508724371</v>
       </c>
       <c r="D33">
-        <v>0.04450673043622494</v>
+        <v>-0.04210354720199157</v>
       </c>
       <c r="E33">
-        <v>0.03818041521136486</v>
+        <v>-0.01162369461104511</v>
       </c>
       <c r="F33">
-        <v>0.01277058600587966</v>
+        <v>0.01992066960825521</v>
       </c>
       <c r="G33">
-        <v>-0.03253577899889249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03236063809631443</v>
+      </c>
+      <c r="H33">
+        <v>-0.05926217412473418</v>
+      </c>
+      <c r="I33">
+        <v>-0.01367505824848947</v>
+      </c>
+      <c r="J33">
+        <v>0.00656640410309906</v>
+      </c>
+      <c r="K33">
+        <v>0.02426180066569826</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.004243656858401611</v>
+        <v>-0.01614182720371495</v>
       </c>
       <c r="C34">
-        <v>-0.05369883726101911</v>
+        <v>0.05268281237882359</v>
       </c>
       <c r="D34">
-        <v>0.01996473926451529</v>
+        <v>-0.02025897772989943</v>
       </c>
       <c r="E34">
-        <v>0.01578771921590118</v>
+        <v>0.002146264497013239</v>
       </c>
       <c r="F34">
-        <v>0.01665690459598395</v>
+        <v>-0.005835125038296494</v>
       </c>
       <c r="G34">
-        <v>-0.03305463008455754</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01957414299834691</v>
+      </c>
+      <c r="H34">
+        <v>-0.01172900303002923</v>
+      </c>
+      <c r="I34">
+        <v>0.007358804715891135</v>
+      </c>
+      <c r="J34">
+        <v>0.01364996862501647</v>
+      </c>
+      <c r="K34">
+        <v>0.03359506484176644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002830234567552938</v>
+        <v>-0.008447876625193876</v>
       </c>
       <c r="C35">
-        <v>-0.01499521568264714</v>
+        <v>0.04025650753358749</v>
       </c>
       <c r="D35">
-        <v>0.002455894389026496</v>
+        <v>-0.01945221592156892</v>
       </c>
       <c r="E35">
-        <v>0.01964291315942553</v>
+        <v>0.0100528940494438</v>
       </c>
       <c r="F35">
-        <v>0.01191682691045636</v>
+        <v>0.01172186698387202</v>
       </c>
       <c r="G35">
-        <v>-0.02072416078315473</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.05306772567403246</v>
+      </c>
+      <c r="H35">
+        <v>-0.1436095890742289</v>
+      </c>
+      <c r="I35">
+        <v>-0.00170047776738697</v>
+      </c>
+      <c r="J35">
+        <v>0.14261327831548</v>
+      </c>
+      <c r="K35">
+        <v>-0.08160912631545737</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.007785399385507173</v>
+        <v>-0.0150760096540603</v>
       </c>
       <c r="C36">
-        <v>-0.05289435177364815</v>
+        <v>0.04827276414122391</v>
       </c>
       <c r="D36">
-        <v>0.04537333248230389</v>
+        <v>-0.0467193578485376</v>
       </c>
       <c r="E36">
-        <v>0.02447093929684984</v>
+        <v>-0.001536124724999502</v>
       </c>
       <c r="F36">
-        <v>0.005166151246431286</v>
+        <v>0.001912613253439815</v>
       </c>
       <c r="G36">
-        <v>-0.01885222739433454</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.00938793491097412</v>
+      </c>
+      <c r="H36">
+        <v>-0.07240987706426211</v>
+      </c>
+      <c r="I36">
+        <v>0.01894794405451981</v>
+      </c>
+      <c r="J36">
+        <v>-0.03740234756608438</v>
+      </c>
+      <c r="K36">
+        <v>0.05443730752470714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02749224245703517</v>
+        <v>-0.01261546271989418</v>
       </c>
       <c r="C38">
-        <v>-0.04618246327998776</v>
+        <v>0.05987652109009878</v>
       </c>
       <c r="D38">
-        <v>0.02779265919579384</v>
+        <v>-0.03710020761573158</v>
       </c>
       <c r="E38">
-        <v>0.02980625145540991</v>
+        <v>-0.03544460716155694</v>
       </c>
       <c r="F38">
-        <v>0.03228379906864456</v>
+        <v>0.009665349421407388</v>
       </c>
       <c r="G38">
-        <v>-0.01058629055590411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01587009624170219</v>
+      </c>
+      <c r="H38">
+        <v>-0.08622753322528699</v>
+      </c>
+      <c r="I38">
+        <v>-0.05214310180451202</v>
+      </c>
+      <c r="J38">
+        <v>0.03985098910792987</v>
+      </c>
+      <c r="K38">
+        <v>0.05161286851125753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.006214353360666313</v>
+        <v>-0.01655043475950121</v>
       </c>
       <c r="C39">
-        <v>-0.1365273125422024</v>
+        <v>0.129387817761303</v>
       </c>
       <c r="D39">
-        <v>0.030329882571015</v>
+        <v>-0.05113299724509678</v>
       </c>
       <c r="E39">
-        <v>0.05237119987115796</v>
+        <v>0.000168242170672602</v>
       </c>
       <c r="F39">
-        <v>0.0516618469915934</v>
+        <v>0.01071995122802442</v>
       </c>
       <c r="G39">
-        <v>-0.05322099608585565</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04713729546496629</v>
+      </c>
+      <c r="H39">
+        <v>-0.04698094542726398</v>
+      </c>
+      <c r="I39">
+        <v>0.06874697784110968</v>
+      </c>
+      <c r="J39">
+        <v>-0.01513608979828395</v>
+      </c>
+      <c r="K39">
+        <v>0.03330806346804282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.0126349224375493</v>
+        <v>-0.01527322284934489</v>
       </c>
       <c r="C40">
-        <v>-0.03783271153716308</v>
+        <v>0.0622809685709376</v>
       </c>
       <c r="D40">
-        <v>0.0280218224111428</v>
+        <v>-0.03594753699992909</v>
       </c>
       <c r="E40">
-        <v>0.1399697171466269</v>
+        <v>0.01874097529076768</v>
       </c>
       <c r="F40">
-        <v>0.01599701455330459</v>
+        <v>0.06822959162195517</v>
       </c>
       <c r="G40">
-        <v>-0.02079638982139337</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1233786051793748</v>
+      </c>
+      <c r="H40">
+        <v>-0.04008589757954829</v>
+      </c>
+      <c r="I40">
+        <v>-0.02077513130819585</v>
+      </c>
+      <c r="J40">
+        <v>0.2641953085293854</v>
+      </c>
+      <c r="K40">
+        <v>0.1075226131298367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.008283595283795403</v>
+        <v>-0.020678033349843</v>
       </c>
       <c r="C41">
-        <v>-0.01846500076843184</v>
+        <v>0.04727368766899918</v>
       </c>
       <c r="D41">
-        <v>0.00440640963592047</v>
+        <v>-0.01582964988814455</v>
       </c>
       <c r="E41">
-        <v>-0.0273439371354073</v>
+        <v>-0.001183124198727108</v>
       </c>
       <c r="F41">
-        <v>-0.01216014093165853</v>
+        <v>-0.02571705220798077</v>
       </c>
       <c r="G41">
-        <v>0.02282813792068391</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.003421427617973481</v>
+      </c>
+      <c r="H41">
+        <v>-0.03023500108806387</v>
+      </c>
+      <c r="I41">
+        <v>-0.03387872942060095</v>
+      </c>
+      <c r="J41">
+        <v>0.0542003608407842</v>
+      </c>
+      <c r="K41">
+        <v>0.004330276552547574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.003202191916891228</v>
+        <v>-0.01673099314870301</v>
       </c>
       <c r="C43">
-        <v>-0.01829007033432981</v>
+        <v>0.04377307570270275</v>
       </c>
       <c r="D43">
-        <v>0.01016914752553611</v>
+        <v>-0.02884063971236737</v>
       </c>
       <c r="E43">
-        <v>0.00270973810574981</v>
+        <v>-0.01509332225545742</v>
       </c>
       <c r="F43">
-        <v>0.0166927143074482</v>
+        <v>-0.01142973341135923</v>
       </c>
       <c r="G43">
-        <v>0.01333716969484647</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.005811594612384303</v>
+      </c>
+      <c r="H43">
+        <v>-0.04663352938380167</v>
+      </c>
+      <c r="I43">
+        <v>-0.004952940291789948</v>
+      </c>
+      <c r="J43">
+        <v>0.04339815184448417</v>
+      </c>
+      <c r="K43">
+        <v>-0.003301697811799284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02541599191422217</v>
+        <v>-0.01068702180307132</v>
       </c>
       <c r="C44">
-        <v>-0.08396494494725143</v>
+        <v>0.09100176301258599</v>
       </c>
       <c r="D44">
-        <v>0.004300763329358203</v>
+        <v>-0.05055027110882315</v>
       </c>
       <c r="E44">
-        <v>0.0940725040155755</v>
+        <v>-0.03540946630162763</v>
       </c>
       <c r="F44">
-        <v>0.04320592157416538</v>
+        <v>0.06934926772951236</v>
       </c>
       <c r="G44">
-        <v>0.0005026421165259382</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04870197738126343</v>
+      </c>
+      <c r="H44">
+        <v>-0.04952002777833308</v>
+      </c>
+      <c r="I44">
+        <v>0.05272903783315493</v>
+      </c>
+      <c r="J44">
+        <v>-0.05985516974053998</v>
+      </c>
+      <c r="K44">
+        <v>-0.0147059336447922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.002976556122334618</v>
+        <v>-0.002372603803310679</v>
       </c>
       <c r="C46">
-        <v>-0.0649567923681857</v>
+        <v>0.06309639838530655</v>
       </c>
       <c r="D46">
-        <v>0.03453491203818201</v>
+        <v>-0.02779146361302041</v>
       </c>
       <c r="E46">
-        <v>0.05486675735518986</v>
+        <v>0.009001423344831241</v>
       </c>
       <c r="F46">
-        <v>0.02360965201709081</v>
+        <v>-0.003508255140781122</v>
       </c>
       <c r="G46">
-        <v>-0.04480805551192319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.0474766841152135</v>
+      </c>
+      <c r="H46">
+        <v>-0.1035903007461519</v>
+      </c>
+      <c r="I46">
+        <v>0.004381611111461293</v>
+      </c>
+      <c r="J46">
+        <v>0.07862458002021708</v>
+      </c>
+      <c r="K46">
+        <v>-0.0394724771246299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.003852068614957702</v>
+        <v>-0.01971772418037792</v>
       </c>
       <c r="C47">
-        <v>-0.1023634715087251</v>
+        <v>0.08966734198365879</v>
       </c>
       <c r="D47">
-        <v>0.03611755133425846</v>
+        <v>-0.04245135703720249</v>
       </c>
       <c r="E47">
-        <v>-0.05940925301474344</v>
+        <v>0.01692156937242585</v>
       </c>
       <c r="F47">
-        <v>-0.02810233092801513</v>
+        <v>-0.03355629292893104</v>
       </c>
       <c r="G47">
-        <v>-0.04098762986530181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01381189431002053</v>
+      </c>
+      <c r="H47">
+        <v>-0.06768806546899085</v>
+      </c>
+      <c r="I47">
+        <v>-0.03020683318715547</v>
+      </c>
+      <c r="J47">
+        <v>0.03184269974540435</v>
+      </c>
+      <c r="K47">
+        <v>0.02012502825403757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01354802258672209</v>
+        <v>-0.02156872957459406</v>
       </c>
       <c r="C48">
-        <v>-0.05336419697573076</v>
+        <v>0.05476750348770326</v>
       </c>
       <c r="D48">
-        <v>0.05816861211653196</v>
+        <v>-0.0546895716768156</v>
       </c>
       <c r="E48">
-        <v>0.01742736424571838</v>
+        <v>-0.005513572311552902</v>
       </c>
       <c r="F48">
-        <v>0.0100629773005558</v>
+        <v>-0.003499723256359422</v>
       </c>
       <c r="G48">
-        <v>-0.01163126322661194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.002473167186511123</v>
+      </c>
+      <c r="H48">
+        <v>-0.1029161560968992</v>
+      </c>
+      <c r="I48">
+        <v>0.03260442954177632</v>
+      </c>
+      <c r="J48">
+        <v>-0.08255573530276172</v>
+      </c>
+      <c r="K48">
+        <v>0.06936372377025908</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.005616041893105513</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02384976008102605</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.002126851445651761</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.004159450302095007</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.03131167653545257</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.034771508273966</v>
+      </c>
+      <c r="H49">
+        <v>0.02855564964669061</v>
+      </c>
+      <c r="I49">
+        <v>0.04514028135556301</v>
+      </c>
+      <c r="J49">
+        <v>-0.02332864888403158</v>
+      </c>
+      <c r="K49">
+        <v>0.03818936141527825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.0004722060398942262</v>
+        <v>-0.01206321442971629</v>
       </c>
       <c r="C50">
-        <v>-0.08358432859588409</v>
+        <v>0.08386014363429715</v>
       </c>
       <c r="D50">
-        <v>0.02435514623767842</v>
+        <v>-0.02670914223220797</v>
       </c>
       <c r="E50">
-        <v>-0.009855318102326314</v>
+        <v>-0.0006186847694536382</v>
       </c>
       <c r="F50">
-        <v>-0.002024559912092318</v>
+        <v>-0.006531671177585315</v>
       </c>
       <c r="G50">
-        <v>0.008704860989027017</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02561799582245161</v>
+      </c>
+      <c r="H50">
+        <v>-0.06031705162349987</v>
+      </c>
+      <c r="I50">
+        <v>-0.04256090316321207</v>
+      </c>
+      <c r="J50">
+        <v>0.02494820130840499</v>
+      </c>
+      <c r="K50">
+        <v>0.008295254966090126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.00558968800044154</v>
+        <v>0.005791240175718372</v>
       </c>
       <c r="C51">
-        <v>-0.07103784725367093</v>
+        <v>0.03750955123229111</v>
       </c>
       <c r="D51">
-        <v>-0.008331742198666421</v>
+        <v>-0.01986143393111255</v>
       </c>
       <c r="E51">
-        <v>0.09442064626762264</v>
+        <v>0.002036514141465426</v>
       </c>
       <c r="F51">
-        <v>0.01748644866000906</v>
+        <v>0.04023626080960041</v>
       </c>
       <c r="G51">
-        <v>0.01273402793843291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02557692736390938</v>
+      </c>
+      <c r="H51">
+        <v>-0.09510258324155973</v>
+      </c>
+      <c r="I51">
+        <v>0.02098391279379238</v>
+      </c>
+      <c r="J51">
+        <v>-0.1117787633242179</v>
+      </c>
+      <c r="K51">
+        <v>0.0101426321603755</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.04614906151301094</v>
+        <v>-0.05629008377578042</v>
       </c>
       <c r="C53">
-        <v>-0.1363616897386106</v>
+        <v>0.1334365093320426</v>
       </c>
       <c r="D53">
-        <v>0.05681839843647751</v>
+        <v>-0.05097906428833401</v>
       </c>
       <c r="E53">
-        <v>-0.1294223138687001</v>
+        <v>0.02020690002856781</v>
       </c>
       <c r="F53">
-        <v>0.009650514912277131</v>
+        <v>-0.07776942246070753</v>
       </c>
       <c r="G53">
-        <v>0.006293399732323211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.06989969104852495</v>
+      </c>
+      <c r="H53">
+        <v>0.02368900979998776</v>
+      </c>
+      <c r="I53">
+        <v>-0.04241682111132309</v>
+      </c>
+      <c r="J53">
+        <v>0.0127058966020664</v>
+      </c>
+      <c r="K53">
+        <v>0.05605231702888117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.01334841328209427</v>
+        <v>-0.01741938861951851</v>
       </c>
       <c r="C54">
-        <v>-0.07236809287612697</v>
+        <v>0.07751417727811388</v>
       </c>
       <c r="D54">
-        <v>0.006809161446824789</v>
+        <v>-0.01001365488551148</v>
       </c>
       <c r="E54">
-        <v>-0.007596601992084949</v>
+        <v>0.006585341480509957</v>
       </c>
       <c r="F54">
-        <v>0.02481629907313424</v>
+        <v>-0.01600844864504281</v>
       </c>
       <c r="G54">
-        <v>-0.01768046137221902</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02148032132956097</v>
+      </c>
+      <c r="H54">
+        <v>-0.05822813400649961</v>
+      </c>
+      <c r="I54">
+        <v>0.01906587080910649</v>
+      </c>
+      <c r="J54">
+        <v>0.01285668827888857</v>
+      </c>
+      <c r="K54">
+        <v>-0.003350826939475068</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.02987636593649232</v>
+        <v>-0.03194823491188748</v>
       </c>
       <c r="C55">
-        <v>-0.09450088736656465</v>
+        <v>0.08929440816259959</v>
       </c>
       <c r="D55">
-        <v>0.05518718601353895</v>
+        <v>-0.05005718043475275</v>
       </c>
       <c r="E55">
-        <v>-0.06725386683653747</v>
+        <v>0.009407343966693573</v>
       </c>
       <c r="F55">
-        <v>-0.007091965461789264</v>
+        <v>-0.06153642194690315</v>
       </c>
       <c r="G55">
-        <v>-0.02385711098732826</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03322637392847673</v>
+      </c>
+      <c r="H55">
+        <v>0.01663449254226472</v>
+      </c>
+      <c r="I55">
+        <v>0.01112253826568126</v>
+      </c>
+      <c r="J55">
+        <v>0.001529545158726883</v>
+      </c>
+      <c r="K55">
+        <v>0.03760841346270775</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.03517668137636602</v>
+        <v>-0.04303909528003001</v>
       </c>
       <c r="C56">
-        <v>-0.1797877900823398</v>
+        <v>0.1608105833041607</v>
       </c>
       <c r="D56">
-        <v>0.05471381061698087</v>
+        <v>-0.07485037352217622</v>
       </c>
       <c r="E56">
-        <v>-0.1589535833259083</v>
+        <v>0.04712307384988597</v>
       </c>
       <c r="F56">
-        <v>-0.04659935207891178</v>
+        <v>-0.1094247605391082</v>
       </c>
       <c r="G56">
-        <v>0.01323715729440053</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1407202737787241</v>
+      </c>
+      <c r="H56">
+        <v>0.03500037397531718</v>
+      </c>
+      <c r="I56">
+        <v>-0.02778631840356266</v>
+      </c>
+      <c r="J56">
+        <v>-0.02083631247457746</v>
+      </c>
+      <c r="K56">
+        <v>0.04254857085984237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03182583203407904</v>
+        <v>-0.01882363024444992</v>
       </c>
       <c r="C58">
-        <v>-0.2571726654751028</v>
+        <v>0.177430449961254</v>
       </c>
       <c r="D58">
-        <v>-0.1027874355791029</v>
+        <v>-0.03011794036858787</v>
       </c>
       <c r="E58">
-        <v>0.2748065827264631</v>
+        <v>-0.08797959167533592</v>
       </c>
       <c r="F58">
-        <v>0.01746309044389342</v>
+        <v>0.3134679604801653</v>
       </c>
       <c r="G58">
-        <v>0.3226041027948094</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1211447004969288</v>
+      </c>
+      <c r="H58">
+        <v>-0.0448669955971433</v>
+      </c>
+      <c r="I58">
+        <v>-0.01068018791363081</v>
+      </c>
+      <c r="J58">
+        <v>-0.4187546931185375</v>
+      </c>
+      <c r="K58">
+        <v>-0.1937684376801985</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2814561538755974</v>
+        <v>-0.2872390916475917</v>
       </c>
       <c r="C59">
-        <v>0.01996066902972695</v>
+        <v>-0.04477787944111124</v>
       </c>
       <c r="D59">
-        <v>-0.04675963375035861</v>
+        <v>0.007825969849276066</v>
       </c>
       <c r="E59">
-        <v>0.03028113351484633</v>
+        <v>0.01530273683249903</v>
       </c>
       <c r="F59">
-        <v>-0.04871203709037787</v>
+        <v>0.04386450677800418</v>
       </c>
       <c r="G59">
-        <v>-0.04038347620193768</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001927791648559373</v>
+      </c>
+      <c r="H59">
+        <v>0.02482905507418183</v>
+      </c>
+      <c r="I59">
+        <v>-0.03216015771816823</v>
+      </c>
+      <c r="J59">
+        <v>0.02216961939948187</v>
+      </c>
+      <c r="K59">
+        <v>0.0193894836431333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1306514642100929</v>
+        <v>-0.1516014889397545</v>
       </c>
       <c r="C60">
-        <v>-0.1439295282682574</v>
+        <v>0.1555377478700724</v>
       </c>
       <c r="D60">
-        <v>0.05226641390724252</v>
+        <v>-0.03531905723772978</v>
       </c>
       <c r="E60">
-        <v>0.004602874376095012</v>
+        <v>0.0604252962085471</v>
       </c>
       <c r="F60">
-        <v>0.1316605171656384</v>
+        <v>-0.06958637105856959</v>
       </c>
       <c r="G60">
-        <v>-0.2961247051436869</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.258286724811589</v>
+      </c>
+      <c r="H60">
+        <v>0.2473650446409548</v>
+      </c>
+      <c r="I60">
+        <v>0.02101954229485328</v>
+      </c>
+      <c r="J60">
+        <v>-0.01584751680088525</v>
+      </c>
+      <c r="K60">
+        <v>-0.07231647926169905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.005855004772668026</v>
+        <v>-0.01897455450260428</v>
       </c>
       <c r="C61">
-        <v>-0.09597578652673143</v>
+        <v>0.101033674022224</v>
       </c>
       <c r="D61">
-        <v>0.04616619466446976</v>
+        <v>-0.05037941710237166</v>
       </c>
       <c r="E61">
-        <v>0.007913561924142718</v>
+        <v>0.01002229447810126</v>
       </c>
       <c r="F61">
-        <v>0.04164423509252262</v>
+        <v>-0.0263274374665631</v>
       </c>
       <c r="G61">
-        <v>-0.07099291515068208</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0412862963934828</v>
+      </c>
+      <c r="H61">
+        <v>-0.0569312241600139</v>
+      </c>
+      <c r="I61">
+        <v>0.03444661892811745</v>
+      </c>
+      <c r="J61">
+        <v>0.01706747040336408</v>
+      </c>
+      <c r="K61">
+        <v>0.03715046463850846</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.002442679745943484</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.008604997247684541</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.00117007978829654</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01050908479883797</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01376426649029421</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02073684188977587</v>
+      </c>
+      <c r="H62">
+        <v>-0.003714147025026938</v>
+      </c>
+      <c r="I62">
+        <v>0.001228256566170604</v>
+      </c>
+      <c r="J62">
+        <v>0.007240649652090401</v>
+      </c>
+      <c r="K62">
+        <v>0.01639346311454434</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.00324950325142946</v>
+        <v>-0.02482297049516338</v>
       </c>
       <c r="C63">
-        <v>-0.07028129407122949</v>
+        <v>0.07118357708321478</v>
       </c>
       <c r="D63">
-        <v>0.02944839570732299</v>
+        <v>-0.05664214230696332</v>
       </c>
       <c r="E63">
-        <v>0.0004479945781404863</v>
+        <v>0.006898760118751304</v>
       </c>
       <c r="F63">
-        <v>0.03233985947039174</v>
+        <v>-0.01664766889394906</v>
       </c>
       <c r="G63">
-        <v>-0.02170616388743648</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01472928133614836</v>
+      </c>
+      <c r="H63">
+        <v>-0.06471008584041145</v>
+      </c>
+      <c r="I63">
+        <v>0.01394332856859399</v>
+      </c>
+      <c r="J63">
+        <v>0.01419027035934402</v>
+      </c>
+      <c r="K63">
+        <v>0.06307686157084019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.003301856176480341</v>
+        <v>-0.01400490602312655</v>
       </c>
       <c r="C64">
-        <v>-0.09473755546331153</v>
+        <v>0.09321720941387464</v>
       </c>
       <c r="D64">
-        <v>0.06776441564596083</v>
+        <v>-0.03309006946393488</v>
       </c>
       <c r="E64">
-        <v>0.03783218210073185</v>
+        <v>-0.03929051714016573</v>
       </c>
       <c r="F64">
-        <v>0.02909631669865865</v>
+        <v>0.03005196004959505</v>
       </c>
       <c r="G64">
-        <v>-0.03252012455547788</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05569668295329028</v>
+      </c>
+      <c r="H64">
+        <v>-0.03936818390106223</v>
+      </c>
+      <c r="I64">
+        <v>0.02896531272413496</v>
+      </c>
+      <c r="J64">
+        <v>0.02072867887499134</v>
+      </c>
+      <c r="K64">
+        <v>0.1162843041753844</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.02153723969512248</v>
+        <v>-0.03193668976720014</v>
       </c>
       <c r="C65">
-        <v>-0.07177762294319263</v>
+        <v>0.09000126288009029</v>
       </c>
       <c r="D65">
-        <v>0.02380691218918589</v>
+        <v>-0.01415825285961044</v>
       </c>
       <c r="E65">
-        <v>0.06818932120136043</v>
+        <v>-0.03103853384418346</v>
       </c>
       <c r="F65">
-        <v>0.03131941697611443</v>
+        <v>0.01892405478042959</v>
       </c>
       <c r="G65">
-        <v>-0.02528699658139901</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.1104675197670442</v>
+      </c>
+      <c r="H65">
+        <v>0.009349275845609779</v>
+      </c>
+      <c r="I65">
+        <v>0.07714946432270789</v>
+      </c>
+      <c r="J65">
+        <v>-0.08381615640507639</v>
+      </c>
+      <c r="K65">
+        <v>-0.01499533758548251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.007434538356032955</v>
+        <v>-0.01139140896975751</v>
       </c>
       <c r="C66">
-        <v>-0.1681752811428388</v>
+        <v>0.1637356408774407</v>
       </c>
       <c r="D66">
-        <v>0.009550685571118805</v>
+        <v>-0.04226881687564079</v>
       </c>
       <c r="E66">
-        <v>0.09446205761557207</v>
+        <v>0.006886878107702154</v>
       </c>
       <c r="F66">
-        <v>0.03574703509503392</v>
+        <v>0.02250503893965985</v>
       </c>
       <c r="G66">
-        <v>-0.07218642680409529</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03980047503080886</v>
+      </c>
+      <c r="H66">
+        <v>-0.05976980826546235</v>
+      </c>
+      <c r="I66">
+        <v>0.05446496258863054</v>
+      </c>
+      <c r="J66">
+        <v>-0.0152277287249716</v>
+      </c>
+      <c r="K66">
+        <v>0.03510367222945043</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02646235767504668</v>
+        <v>-0.02122270260108084</v>
       </c>
       <c r="C67">
-        <v>-0.02923914804007712</v>
+        <v>0.05081847666221777</v>
       </c>
       <c r="D67">
-        <v>0.05100584997240384</v>
+        <v>-0.03918147795353835</v>
       </c>
       <c r="E67">
-        <v>-0.0140044220164476</v>
+        <v>-0.02435386332142531</v>
       </c>
       <c r="F67">
-        <v>0.03930508631077084</v>
+        <v>-0.02499789734660209</v>
       </c>
       <c r="G67">
-        <v>-0.02674541374776532</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03730876250367586</v>
+      </c>
+      <c r="H67">
+        <v>-0.05847274709325278</v>
+      </c>
+      <c r="I67">
+        <v>-0.04779428003937601</v>
+      </c>
+      <c r="J67">
+        <v>0.05356333043401359</v>
+      </c>
+      <c r="K67">
+        <v>0.02559403286077481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2826599115747295</v>
+        <v>-0.294664694948363</v>
       </c>
       <c r="C68">
-        <v>0.04370341753655348</v>
+        <v>-0.06210620571383117</v>
       </c>
       <c r="D68">
-        <v>-0.02680207453674889</v>
+        <v>0.02249860623608401</v>
       </c>
       <c r="E68">
-        <v>0.007033809672547939</v>
+        <v>0.004346235341606435</v>
       </c>
       <c r="F68">
-        <v>-0.01878825971208712</v>
+        <v>0.02313713318542136</v>
       </c>
       <c r="G68">
-        <v>0.02397972739949629</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03174274979545325</v>
+      </c>
+      <c r="H68">
+        <v>-0.02852149733621509</v>
+      </c>
+      <c r="I68">
+        <v>-0.03475947484039238</v>
+      </c>
+      <c r="J68">
+        <v>-0.007154753093423754</v>
+      </c>
+      <c r="K68">
+        <v>0.06403925135145654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.0080272046268754</v>
+        <v>-0.007010942235268071</v>
       </c>
       <c r="C69">
-        <v>-0.08343183669081408</v>
+        <v>0.06474521175441485</v>
       </c>
       <c r="D69">
-        <v>0.05383149003811919</v>
+        <v>-0.02792427657161053</v>
       </c>
       <c r="E69">
-        <v>-0.03110503085037663</v>
+        <v>0.00689373115288091</v>
       </c>
       <c r="F69">
-        <v>-0.001647690849357932</v>
+        <v>-0.01553261779463335</v>
       </c>
       <c r="G69">
-        <v>-0.004604788349119996</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01144191467496847</v>
+      </c>
+      <c r="H69">
+        <v>-0.04838705760495947</v>
+      </c>
+      <c r="I69">
+        <v>-0.01973376501558647</v>
+      </c>
+      <c r="J69">
+        <v>0.001070633667351701</v>
+      </c>
+      <c r="K69">
+        <v>0.021223483664069</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2828839649561424</v>
+        <v>-0.2764132522105238</v>
       </c>
       <c r="C71">
-        <v>0.05882687322108415</v>
+        <v>-0.07435160434286958</v>
       </c>
       <c r="D71">
-        <v>-0.03305718523610279</v>
+        <v>0.02019358335841751</v>
       </c>
       <c r="E71">
-        <v>0.02674008737124333</v>
+        <v>-0.03460544316766717</v>
       </c>
       <c r="F71">
-        <v>0.01285446906724958</v>
+        <v>0.04454640756845296</v>
       </c>
       <c r="G71">
-        <v>0.0208287029674089</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01301842554880947</v>
+      </c>
+      <c r="H71">
+        <v>-0.05007215970863271</v>
+      </c>
+      <c r="I71">
+        <v>-0.1214926376749706</v>
+      </c>
+      <c r="J71">
+        <v>-0.04623178023654172</v>
+      </c>
+      <c r="K71">
+        <v>0.04767338243956926</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.04015225730434392</v>
+        <v>-0.05439253564996539</v>
       </c>
       <c r="C72">
-        <v>-0.1508524733960956</v>
+        <v>0.1378351386359151</v>
       </c>
       <c r="D72">
-        <v>0.04740877145515413</v>
+        <v>-0.03706829341054104</v>
       </c>
       <c r="E72">
-        <v>0.07083308281256055</v>
+        <v>0.00024085932340635</v>
       </c>
       <c r="F72">
-        <v>0.09540515561983511</v>
+        <v>-0.02572568961713157</v>
       </c>
       <c r="G72">
-        <v>-0.04654596066019457</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04083557467425154</v>
+      </c>
+      <c r="H72">
+        <v>-0.02011181986618644</v>
+      </c>
+      <c r="I72">
+        <v>0.1297841932819445</v>
+      </c>
+      <c r="J72">
+        <v>-0.06634992619624525</v>
+      </c>
+      <c r="K72">
+        <v>0.004153714567763886</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.08130374490584605</v>
+        <v>-0.1492795988686144</v>
       </c>
       <c r="C73">
-        <v>-0.1346728594691456</v>
+        <v>0.1961591571374783</v>
       </c>
       <c r="D73">
-        <v>0.1034262085575784</v>
+        <v>-0.06966923559816172</v>
       </c>
       <c r="E73">
-        <v>-0.03612059272699071</v>
+        <v>0.06273403685702345</v>
       </c>
       <c r="F73">
-        <v>0.210145345343227</v>
+        <v>-0.1808477987435066</v>
       </c>
       <c r="G73">
-        <v>-0.3928251812890116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.4004673506934209</v>
+      </c>
+      <c r="H73">
+        <v>0.3256731317287758</v>
+      </c>
+      <c r="I73">
+        <v>-0.08074631420378456</v>
+      </c>
+      <c r="J73">
+        <v>-0.07988309124565722</v>
+      </c>
+      <c r="K73">
+        <v>-0.08944764152880572</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01500448405452671</v>
+        <v>-0.03686125558897568</v>
       </c>
       <c r="C74">
-        <v>-0.1087434589083816</v>
+        <v>0.108582854039327</v>
       </c>
       <c r="D74">
-        <v>0.0631952488447108</v>
+        <v>-0.04326776203302628</v>
       </c>
       <c r="E74">
-        <v>-0.0946518134618226</v>
+        <v>0.01212477696672781</v>
       </c>
       <c r="F74">
-        <v>-0.02761667812095488</v>
+        <v>-0.06047198053912869</v>
       </c>
       <c r="G74">
-        <v>-0.004353245031799122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.052404553459101</v>
+      </c>
+      <c r="H74">
+        <v>0.004588346051791837</v>
+      </c>
+      <c r="I74">
+        <v>0.005224437407387114</v>
+      </c>
+      <c r="J74">
+        <v>-0.02439547721647039</v>
+      </c>
+      <c r="K74">
+        <v>0.06932612971005307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.05493088396933414</v>
+        <v>-0.05870828064411881</v>
       </c>
       <c r="C75">
-        <v>-0.1693122133978673</v>
+        <v>0.1748451522280803</v>
       </c>
       <c r="D75">
-        <v>0.08780972745274085</v>
+        <v>-0.08195329006715894</v>
       </c>
       <c r="E75">
-        <v>-0.2343250908642311</v>
+        <v>-0.02541904506402875</v>
       </c>
       <c r="F75">
-        <v>-0.04964048172409322</v>
+        <v>-0.1616658641444275</v>
       </c>
       <c r="G75">
-        <v>0.09125581288758924</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2007532966850696</v>
+      </c>
+      <c r="H75">
+        <v>0.03138631001709087</v>
+      </c>
+      <c r="I75">
+        <v>-0.122374753708</v>
+      </c>
+      <c r="J75">
+        <v>0.06080568084544723</v>
+      </c>
+      <c r="K75">
+        <v>0.09391931415450061</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.03079135148861219</v>
+        <v>-0.04085467859077849</v>
       </c>
       <c r="C76">
-        <v>-0.1236947009603431</v>
+        <v>0.128916917469714</v>
       </c>
       <c r="D76">
-        <v>0.06115231848415825</v>
+        <v>-0.07047434029402586</v>
       </c>
       <c r="E76">
-        <v>-0.1060275567707699</v>
+        <v>0.01434024183107998</v>
       </c>
       <c r="F76">
-        <v>-0.02263820726057685</v>
+        <v>-0.0942808458990895</v>
       </c>
       <c r="G76">
-        <v>-0.0265703917312965</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.06462907879098412</v>
+      </c>
+      <c r="H76">
+        <v>0.01340842530392635</v>
+      </c>
+      <c r="I76">
+        <v>-1.843573743390426e-05</v>
+      </c>
+      <c r="J76">
+        <v>0.02912738062771079</v>
+      </c>
+      <c r="K76">
+        <v>0.1328786155330322</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.06451393238852245</v>
+        <v>-0.04237441627523213</v>
       </c>
       <c r="C77">
-        <v>-0.2635694660364537</v>
+        <v>0.3641793223440861</v>
       </c>
       <c r="D77">
-        <v>-0.8608420858950591</v>
+        <v>0.9149304743034508</v>
       </c>
       <c r="E77">
-        <v>-0.2912766908081478</v>
+        <v>-0.02835758369380048</v>
       </c>
       <c r="F77">
-        <v>0.1662921440847046</v>
+        <v>-0.09213250547613573</v>
       </c>
       <c r="G77">
-        <v>-0.05625346179966709</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01990459911713952</v>
+      </c>
+      <c r="H77">
+        <v>-0.05979929746558243</v>
+      </c>
+      <c r="I77">
+        <v>-0.002511217289708633</v>
+      </c>
+      <c r="J77">
+        <v>0.002630352283495705</v>
+      </c>
+      <c r="K77">
+        <v>0.01577972684695923</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03907611896304534</v>
+        <v>-0.03197997419763913</v>
       </c>
       <c r="C78">
-        <v>-0.1420874168589429</v>
+        <v>0.1109239654584561</v>
       </c>
       <c r="D78">
-        <v>0.07569898401121389</v>
+        <v>-0.09106667997298946</v>
       </c>
       <c r="E78">
-        <v>0.05953111690107869</v>
+        <v>0.03893861051096689</v>
       </c>
       <c r="F78">
-        <v>-0.1338024757103265</v>
+        <v>0.0053082687389038</v>
       </c>
       <c r="G78">
-        <v>-0.02891659636619881</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.08542913230397911</v>
+      </c>
+      <c r="H78">
+        <v>-0.05111227288362834</v>
+      </c>
+      <c r="I78">
+        <v>0.100949115761579</v>
+      </c>
+      <c r="J78">
+        <v>-0.4251760415783266</v>
+      </c>
+      <c r="K78">
+        <v>-0.04401414755617825</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.03113325146526258</v>
+        <v>-0.05185918565178228</v>
       </c>
       <c r="C79">
-        <v>-0.2152444140809133</v>
+        <v>0.1566589459479204</v>
       </c>
       <c r="D79">
-        <v>0.1189390403630185</v>
+        <v>-0.06875474229578041</v>
       </c>
       <c r="E79">
-        <v>-0.2065441585802177</v>
+        <v>0.03520830743545091</v>
       </c>
       <c r="F79">
-        <v>-0.1402857988558329</v>
+        <v>-0.1072855592583759</v>
       </c>
       <c r="G79">
-        <v>0.07212876043592532</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.241055690474003</v>
+      </c>
+      <c r="H79">
+        <v>-0.001189044210459132</v>
+      </c>
+      <c r="I79">
+        <v>-0.08298460157587795</v>
+      </c>
+      <c r="J79">
+        <v>-0.07196715092591371</v>
+      </c>
+      <c r="K79">
+        <v>0.07408197237994658</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.01114939151972688</v>
+        <v>-0.01905856759239883</v>
       </c>
       <c r="C80">
-        <v>-0.05521346469121063</v>
+        <v>0.05567644968334679</v>
       </c>
       <c r="D80">
-        <v>0.04885303633108291</v>
+        <v>-0.04008130474878831</v>
       </c>
       <c r="E80">
-        <v>-0.02013519888478345</v>
+        <v>0.04392325466350713</v>
       </c>
       <c r="F80">
-        <v>-0.02481130421468419</v>
+        <v>0.0340497420651981</v>
       </c>
       <c r="G80">
-        <v>-0.007423544746812216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04137719412781658</v>
+      </c>
+      <c r="H80">
+        <v>0.03452107074154415</v>
+      </c>
+      <c r="I80">
+        <v>-0.0543850306405444</v>
+      </c>
+      <c r="J80">
+        <v>0.07933276890429779</v>
+      </c>
+      <c r="K80">
+        <v>0.03281087598737677</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.01034348071037141</v>
+        <v>-0.01467784777670303</v>
       </c>
       <c r="C81">
-        <v>-0.09779477395678038</v>
+        <v>0.1030300952274082</v>
       </c>
       <c r="D81">
-        <v>0.07604301829684172</v>
+        <v>-0.05104736499371782</v>
       </c>
       <c r="E81">
-        <v>-0.1342997008297352</v>
+        <v>0.02058151273827124</v>
       </c>
       <c r="F81">
-        <v>-0.04777665139666873</v>
+        <v>-0.06195327040069055</v>
       </c>
       <c r="G81">
-        <v>0.004237203898455417</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.105685889393923</v>
+      </c>
+      <c r="H81">
+        <v>-0.04403967706754228</v>
+      </c>
+      <c r="I81">
+        <v>-0.05125190593112675</v>
+      </c>
+      <c r="J81">
+        <v>0.02280476068643913</v>
+      </c>
+      <c r="K81">
+        <v>0.09117980708146786</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.03432044005885763</v>
+        <v>-0.04551414249090777</v>
       </c>
       <c r="C82">
-        <v>-0.1097146509839528</v>
+        <v>0.1121504464268604</v>
       </c>
       <c r="D82">
-        <v>0.07844795604002001</v>
+        <v>-0.06547491008607122</v>
       </c>
       <c r="E82">
-        <v>-0.1188248500629359</v>
+        <v>0.01773403662026955</v>
       </c>
       <c r="F82">
-        <v>-0.004280505759609855</v>
+        <v>-0.08374185654888677</v>
       </c>
       <c r="G82">
-        <v>-0.01293185315224667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.08044535444796241</v>
+      </c>
+      <c r="H82">
+        <v>-0.01081087160448556</v>
+      </c>
+      <c r="I82">
+        <v>-0.01834212571371828</v>
+      </c>
+      <c r="J82">
+        <v>0.01016598308557257</v>
+      </c>
+      <c r="K82">
+        <v>0.1038150000230594</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.008884034724179856</v>
+        <v>0.002912891303145475</v>
       </c>
       <c r="C83">
-        <v>-0.03341593525525203</v>
+        <v>-0.002779027462788793</v>
       </c>
       <c r="D83">
-        <v>-0.1945000251578492</v>
+        <v>0.06238259766387123</v>
       </c>
       <c r="E83">
-        <v>0.1152866412137472</v>
+        <v>0.9282296292285926</v>
       </c>
       <c r="F83">
-        <v>-0.8205135711919496</v>
+        <v>0.2456674117441887</v>
       </c>
       <c r="G83">
-        <v>-0.3963224501700736</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.08089256833271218</v>
+      </c>
+      <c r="H83">
+        <v>0.07376312279474807</v>
+      </c>
+      <c r="I83">
+        <v>0.05880979870514651</v>
+      </c>
+      <c r="J83">
+        <v>-0.001346550987886425</v>
+      </c>
+      <c r="K83">
+        <v>0.09801994756901411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.0005683684102266016</v>
+        <v>0.001893365224270406</v>
       </c>
       <c r="C84">
-        <v>-0.05344649623098</v>
+        <v>0.04517007534479264</v>
       </c>
       <c r="D84">
-        <v>0.02028876703488995</v>
+        <v>-0.06092468656167861</v>
       </c>
       <c r="E84">
-        <v>0.1010207595993392</v>
+        <v>-0.04363612998412458</v>
       </c>
       <c r="F84">
-        <v>0.01585369654302609</v>
+        <v>0.08593551978557142</v>
       </c>
       <c r="G84">
-        <v>0.1297967223621654</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.03864984860383582</v>
+      </c>
+      <c r="H84">
+        <v>-0.07252650567447523</v>
+      </c>
+      <c r="I84">
+        <v>0.1112073660676494</v>
+      </c>
+      <c r="J84">
+        <v>0.05014737331858515</v>
+      </c>
+      <c r="K84">
+        <v>0.08649941957542998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.02480158877193268</v>
+        <v>-0.02727405383226176</v>
       </c>
       <c r="C85">
-        <v>-0.1527618472572906</v>
+        <v>0.1237978272374334</v>
       </c>
       <c r="D85">
-        <v>0.08899130508132294</v>
+        <v>-0.07964087906200538</v>
       </c>
       <c r="E85">
-        <v>-0.1918757347795193</v>
+        <v>0.02647601044257995</v>
       </c>
       <c r="F85">
-        <v>-0.09075355280626271</v>
+        <v>-0.1581485023438194</v>
       </c>
       <c r="G85">
-        <v>0.05828767066621465</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1807841663927177</v>
+      </c>
+      <c r="H85">
+        <v>0.02602737694301599</v>
+      </c>
+      <c r="I85">
+        <v>-0.07815078818679647</v>
+      </c>
+      <c r="J85">
+        <v>0.01956288688696672</v>
+      </c>
+      <c r="K85">
+        <v>0.1963638275622104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.018639699026063</v>
+        <v>-0.01641483234237915</v>
       </c>
       <c r="C86">
-        <v>-0.07059205056711737</v>
+        <v>0.08372915563825273</v>
       </c>
       <c r="D86">
-        <v>-0.0359012923877099</v>
+        <v>-0.02275985437652045</v>
       </c>
       <c r="E86">
-        <v>0.05149160411651777</v>
+        <v>-0.01289451084816617</v>
       </c>
       <c r="F86">
-        <v>0.047903918149493</v>
+        <v>0.08808567465629749</v>
       </c>
       <c r="G86">
-        <v>0.007831842084354593</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07219828766224241</v>
+      </c>
+      <c r="H86">
+        <v>-0.02636010808377917</v>
+      </c>
+      <c r="I86">
+        <v>-0.1407535184060217</v>
+      </c>
+      <c r="J86">
+        <v>-0.1560444646003112</v>
+      </c>
+      <c r="K86">
+        <v>-0.06428663429204802</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.04638898628810464</v>
+        <v>-0.02356789282516798</v>
       </c>
       <c r="C87">
-        <v>-0.1440710984064753</v>
+        <v>0.116478162683284</v>
       </c>
       <c r="D87">
-        <v>0.003004234724438652</v>
+        <v>-0.01442654770102697</v>
       </c>
       <c r="E87">
-        <v>0.1382129502228592</v>
+        <v>-0.02303640222629249</v>
       </c>
       <c r="F87">
-        <v>-0.04319385067275332</v>
+        <v>0.07740291032303122</v>
       </c>
       <c r="G87">
-        <v>0.02830797627082834</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.00467177625620446</v>
+      </c>
+      <c r="H87">
+        <v>-0.04348905612332928</v>
+      </c>
+      <c r="I87">
+        <v>0.1052691186858068</v>
+      </c>
+      <c r="J87">
+        <v>-0.06760206613596177</v>
+      </c>
+      <c r="K87">
+        <v>0.07277468240794273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.004836367346051165</v>
+        <v>-0.03552672401996209</v>
       </c>
       <c r="C88">
-        <v>-0.04722420592805934</v>
+        <v>0.06871780691553127</v>
       </c>
       <c r="D88">
-        <v>0.05114689443524747</v>
+        <v>-0.0429597393947061</v>
       </c>
       <c r="E88">
-        <v>-0.04144785536103985</v>
+        <v>-0.01024758093631986</v>
       </c>
       <c r="F88">
-        <v>0.04304706562933162</v>
+        <v>-0.02264360984838045</v>
       </c>
       <c r="G88">
-        <v>-0.009907140573588663</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.0288645764418074</v>
+      </c>
+      <c r="H88">
+        <v>0.000117977281320949</v>
+      </c>
+      <c r="I88">
+        <v>-0.02515140822579439</v>
+      </c>
+      <c r="J88">
+        <v>0.07603078406808005</v>
+      </c>
+      <c r="K88">
+        <v>0.06997197410928917</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3888409624071557</v>
+        <v>-0.3933979180551502</v>
       </c>
       <c r="C89">
-        <v>0.09398460916438559</v>
+        <v>-0.1067541860054609</v>
       </c>
       <c r="D89">
-        <v>0.1032563165448822</v>
+        <v>0.03113838586743807</v>
       </c>
       <c r="E89">
-        <v>0.06041232700096376</v>
+        <v>-0.03634052154831502</v>
       </c>
       <c r="F89">
-        <v>-0.06638204948874953</v>
+        <v>0.05462820895728012</v>
       </c>
       <c r="G89">
-        <v>0.07540123535438246</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.004183063857816386</v>
+      </c>
+      <c r="H89">
+        <v>0.004516377159962865</v>
+      </c>
+      <c r="I89">
+        <v>0.7417161114390992</v>
+      </c>
+      <c r="J89">
+        <v>0.04661955987647175</v>
+      </c>
+      <c r="K89">
+        <v>-0.05207123140300834</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3024584668277757</v>
+        <v>-0.3151728513827479</v>
       </c>
       <c r="C90">
-        <v>0.02352041134382912</v>
+        <v>-0.06278805250793348</v>
       </c>
       <c r="D90">
-        <v>-0.004145579587493446</v>
+        <v>0.009656046117719069</v>
       </c>
       <c r="E90">
-        <v>0.03746524504115385</v>
+        <v>0.01459906824313066</v>
       </c>
       <c r="F90">
-        <v>-0.06101945730019952</v>
+        <v>0.03488258920429711</v>
       </c>
       <c r="G90">
-        <v>-0.03184457252208849</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02747258949550241</v>
+      </c>
+      <c r="H90">
+        <v>-0.01907886087555074</v>
+      </c>
+      <c r="I90">
+        <v>-0.07630448287860087</v>
+      </c>
+      <c r="J90">
+        <v>-0.02050637602620404</v>
+      </c>
+      <c r="K90">
+        <v>0.01288086018113069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.0283470621244659</v>
+        <v>-0.05134495837878977</v>
       </c>
       <c r="C91">
-        <v>-0.1049957576914869</v>
+        <v>0.09680995169294648</v>
       </c>
       <c r="D91">
-        <v>0.04580235670901039</v>
+        <v>-0.04254398083292055</v>
       </c>
       <c r="E91">
-        <v>-0.1141852326685066</v>
+        <v>0.0469616068170127</v>
       </c>
       <c r="F91">
-        <v>-0.0568988498088648</v>
+        <v>-0.06265655686890544</v>
       </c>
       <c r="G91">
-        <v>0.022618609735347</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.09239862106457708</v>
+      </c>
+      <c r="H91">
+        <v>0.01885763504706836</v>
+      </c>
+      <c r="I91">
+        <v>-0.008619796728362657</v>
+      </c>
+      <c r="J91">
+        <v>0.04802033872819311</v>
+      </c>
+      <c r="K91">
+        <v>0.03769768243380345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3728123334821663</v>
+        <v>-0.3554543950262974</v>
       </c>
       <c r="C92">
-        <v>0.1027296361115594</v>
+        <v>-0.1209231118784387</v>
       </c>
       <c r="D92">
-        <v>-0.02074352550268448</v>
+        <v>0.05028501516915211</v>
       </c>
       <c r="E92">
-        <v>0.01131611067513732</v>
+        <v>-0.05515185044804458</v>
       </c>
       <c r="F92">
-        <v>0.07042965176177413</v>
+        <v>0.04743978673283568</v>
       </c>
       <c r="G92">
-        <v>0.08765997237082156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02501422813774189</v>
+      </c>
+      <c r="H92">
+        <v>-0.08600977951449242</v>
+      </c>
+      <c r="I92">
+        <v>-0.1611413788289816</v>
+      </c>
+      <c r="J92">
+        <v>-0.003379395906085038</v>
+      </c>
+      <c r="K92">
+        <v>-0.03330279935751593</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3002289677862793</v>
+        <v>-0.3109781549387552</v>
       </c>
       <c r="C93">
-        <v>0.08187263021350409</v>
+        <v>-0.1098326592448891</v>
       </c>
       <c r="D93">
-        <v>0.02324513653939167</v>
+        <v>0.003198519241956072</v>
       </c>
       <c r="E93">
-        <v>0.03755602698625988</v>
+        <v>-0.006023384848527189</v>
       </c>
       <c r="F93">
-        <v>-0.03404282475109233</v>
+        <v>0.03367303491576557</v>
       </c>
       <c r="G93">
-        <v>0.04322618194361073</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05015810531568824</v>
+      </c>
+      <c r="H93">
+        <v>-0.04031616950469074</v>
+      </c>
+      <c r="I93">
+        <v>-0.1052290636212593</v>
+      </c>
+      <c r="J93">
+        <v>-0.006759127939268085</v>
+      </c>
+      <c r="K93">
+        <v>0.04196057119328245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.05742304729071541</v>
+        <v>-0.07516838277972143</v>
       </c>
       <c r="C94">
-        <v>-0.2322787677504729</v>
+        <v>0.1824546456762222</v>
       </c>
       <c r="D94">
-        <v>0.1577785575677197</v>
+        <v>-0.1039476456189848</v>
       </c>
       <c r="E94">
-        <v>-0.3801262801006505</v>
+        <v>0.04196741269467186</v>
       </c>
       <c r="F94">
-        <v>-0.2242040717557152</v>
+        <v>-0.2245414490130187</v>
       </c>
       <c r="G94">
-        <v>0.3535134546699517</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5065502940474544</v>
+      </c>
+      <c r="H94">
+        <v>0.1770089265182282</v>
+      </c>
+      <c r="I94">
+        <v>0.1311907303420813</v>
+      </c>
+      <c r="J94">
+        <v>0.2609968387976436</v>
+      </c>
+      <c r="K94">
+        <v>-0.4783664216207582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.04012883447566851</v>
+        <v>-0.03786357316211724</v>
       </c>
       <c r="C95">
-        <v>-0.08553039935378483</v>
+        <v>0.1249154525360744</v>
       </c>
       <c r="D95">
-        <v>0.02168328901287159</v>
+        <v>-0.05399320667011442</v>
       </c>
       <c r="E95">
-        <v>-0.005155147937770076</v>
+        <v>-0.02496133991693946</v>
       </c>
       <c r="F95">
-        <v>0.06370087503100853</v>
+        <v>-0.0646163425334927</v>
       </c>
       <c r="G95">
-        <v>-0.1489174891384145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1011062724160643</v>
+      </c>
+      <c r="H95">
+        <v>-0.06171185801165677</v>
+      </c>
+      <c r="I95">
+        <v>0.1449353140814443</v>
+      </c>
+      <c r="J95">
+        <v>0.225646730937069</v>
+      </c>
+      <c r="K95">
+        <v>0.3251623855619987</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.01077071643593821</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.01340476952659628</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.01096089896355669</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.03583574676757441</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.004691707089169743</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.0337238812674846</v>
+      </c>
+      <c r="H97">
+        <v>-0.03200442093663847</v>
+      </c>
+      <c r="I97">
+        <v>0.02637421629636685</v>
+      </c>
+      <c r="J97">
+        <v>0.01095616188646195</v>
+      </c>
+      <c r="K97">
+        <v>-0.07231481481862707</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09693229284997731</v>
+        <v>-0.1327745611378433</v>
       </c>
       <c r="C98">
-        <v>-0.1421148505666434</v>
+        <v>0.1623002718619734</v>
       </c>
       <c r="D98">
-        <v>0.08897880560919127</v>
+        <v>-0.0788324962821455</v>
       </c>
       <c r="E98">
-        <v>0.00824257759520159</v>
+        <v>0.06090238629402285</v>
       </c>
       <c r="F98">
-        <v>0.1470402296006095</v>
+        <v>-0.1460353674804889</v>
       </c>
       <c r="G98">
-        <v>-0.2786795599521622</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3368919283549253</v>
+      </c>
+      <c r="H98">
+        <v>0.3425682315188237</v>
+      </c>
+      <c r="I98">
+        <v>-0.1021385498379783</v>
+      </c>
+      <c r="J98">
+        <v>-0.09752220672938594</v>
+      </c>
+      <c r="K98">
+        <v>-0.1866816624773773</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.01126593436256056</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.02409533299790943</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009866520244434322</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.008566249068149429</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.04201906076342898</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.02604889906776751</v>
+      </c>
+      <c r="H99">
+        <v>-0.1053475050429752</v>
+      </c>
+      <c r="I99">
+        <v>-0.0008227525318580567</v>
+      </c>
+      <c r="J99">
+        <v>0.02272357847450198</v>
+      </c>
+      <c r="K99">
+        <v>-0.4201751434484204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01373700052349949</v>
+        <v>-0.01345333676122618</v>
       </c>
       <c r="C101">
-        <v>-0.06547539828180807</v>
+        <v>0.07793597467498857</v>
       </c>
       <c r="D101">
-        <v>0.0314285468907315</v>
+        <v>-0.04955313218644751</v>
       </c>
       <c r="E101">
-        <v>0.07348481755706056</v>
+        <v>0.04561593841850161</v>
       </c>
       <c r="F101">
-        <v>0.03023297842886878</v>
+        <v>0.03169964825209366</v>
       </c>
       <c r="G101">
-        <v>-0.08251758701571234</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1383740598713029</v>
+      </c>
+      <c r="H101">
+        <v>-0.2841417063016547</v>
+      </c>
+      <c r="I101">
+        <v>0.03338985872184052</v>
+      </c>
+      <c r="J101">
+        <v>0.1700622370006114</v>
+      </c>
+      <c r="K101">
+        <v>-0.2002008329958972</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.009514256888729707</v>
+        <v>-0.003702661699390122</v>
       </c>
       <c r="C102">
-        <v>-0.05118655312687202</v>
+        <v>0.0212600454493507</v>
       </c>
       <c r="D102">
-        <v>0.01805828156721204</v>
+        <v>-0.005872969352502117</v>
       </c>
       <c r="E102">
-        <v>-0.04488966891496072</v>
+        <v>0.01084476571223387</v>
       </c>
       <c r="F102">
-        <v>-0.02527285988689903</v>
+        <v>-0.01366936014207715</v>
       </c>
       <c r="G102">
-        <v>-0.005121233340767012</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.02328320762888855</v>
+      </c>
+      <c r="H102">
+        <v>-0.005404208836429554</v>
+      </c>
+      <c r="I102">
+        <v>0.01503144801622672</v>
+      </c>
+      <c r="J102">
+        <v>-0.0003983010106929955</v>
+      </c>
+      <c r="K102">
+        <v>-0.02490108465804759</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
